--- a/Civilworks cost/Soil Compaction/Input.xlsx
+++ b/Civilworks cost/Soil Compaction/Input.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
+    <sheet name="Output_summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Output_Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -27,24 +29,12 @@
     <t>value</t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
     <t>ton/cum</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>sigmanot</t>
-  </si>
-  <si>
     <t>ton/sqm</t>
   </si>
   <si>
@@ -54,10 +44,94 @@
     <t>percent</t>
   </si>
   <si>
-    <t>conatact_width</t>
-  </si>
-  <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>Roller Type</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>gammanot</t>
+  </si>
+  <si>
+    <t>initial dry density</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>Roller Weight</t>
+  </si>
+  <si>
+    <t>drum dia</t>
+  </si>
+  <si>
+    <t>drum length</t>
+  </si>
+  <si>
+    <t>tire pressure</t>
+  </si>
+  <si>
+    <t>1:Pneumatic 2:Smooth Wheel 3:Grid Roller 4:Sheepfoot Roller 5:Vibratory Roller</t>
+  </si>
+  <si>
+    <t>covearge ratio</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0.5 for Grid Roller, 0.8-0.12 for sheepfoot roller</t>
+  </si>
+  <si>
+    <t>gammafinal</t>
+  </si>
+  <si>
+    <t>Max Lift Thickness</t>
+  </si>
+  <si>
+    <t>No of Passes</t>
+  </si>
+  <si>
+    <t>Ulitmate Bearing Capacity</t>
+  </si>
+  <si>
+    <t>Roller Adequecy</t>
+  </si>
+  <si>
+    <t>Sigmanot</t>
+  </si>
+  <si>
+    <t>Design Parameter</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Pass No</t>
+  </si>
+  <si>
+    <t>Gamma_initial</t>
+  </si>
+  <si>
+    <t>Lift thickness</t>
+  </si>
+  <si>
+    <t>Elastic modulus</t>
+  </si>
+  <si>
+    <t>Effective Depth</t>
+  </si>
+  <si>
+    <t>Final Lift Thickness</t>
+  </si>
+  <si>
+    <t>Gamma Final</t>
   </si>
 </sst>
 </file>
@@ -113,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -124,6 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,82 +482,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5706</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>41.4</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.5706</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.36</v>
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Soil Compaction/Input.xlsx
+++ b/Civilworks cost/Soil Compaction/Input.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
     <sheet name="Output_summary" sheetId="2" r:id="rId2"/>
     <sheet name="Output_Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +57,6 @@
     <t>gammanot</t>
   </si>
   <si>
-    <t>initial dry density</t>
-  </si>
-  <si>
     <t>ton</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>0.5 for Grid Roller, 0.8-0.12 for sheepfoot roller</t>
-  </si>
-  <si>
     <t>gammafinal</t>
   </si>
   <si>
@@ -98,12 +93,6 @@
     <t>Ulitmate Bearing Capacity</t>
   </si>
   <si>
-    <t>Roller Adequecy</t>
-  </si>
-  <si>
-    <t>Sigmanot</t>
-  </si>
-  <si>
     <t>Design Parameter</t>
   </si>
   <si>
@@ -132,13 +121,76 @@
   </si>
   <si>
     <t>Gamma Final</t>
+  </si>
+  <si>
+    <t>Dynamic Factor</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>initial dry density of loose fill</t>
+  </si>
+  <si>
+    <t>final dry density of embankment Soil</t>
+  </si>
+  <si>
+    <t>in decimal  e.g. 10% for 0.1</t>
+  </si>
+  <si>
+    <t>Wd</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Lmin</t>
+  </si>
+  <si>
+    <t>Lmax</t>
+  </si>
+  <si>
+    <t>maximum lift thickness</t>
+  </si>
+  <si>
+    <t>minimum lift thickness</t>
+  </si>
+  <si>
+    <t>2.0-2.50 for roller type 5  1 for all others</t>
+  </si>
+  <si>
+    <t>0.5 for Grid Roller, 0.8-0.12 for sheepfoot roller 1 for Other roller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller </t>
+  </si>
+  <si>
+    <t>Roller Contact Pressure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,18 +198,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -187,11 +240,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,6 +252,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,146 +538,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5706</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.5706</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,73 +772,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G8" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,43 +839,256 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3">
+        <f>0.6*Parameter!D3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3">
+        <f>0.225*Parameter!D4*Parameter!D5</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <f>(B1*Parameter!D8)/(B2*Parameter!D7)</f>
+        <v>166.66666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Soil Compaction/Input.xlsx
+++ b/Civilworks cost/Soil Compaction/Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
@@ -540,19 +540,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -580,13 +580,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -601,7 +601,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -616,7 +616,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -631,7 +631,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -646,7 +646,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -663,7 +663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -674,13 +674,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,7 +697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -714,7 +714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -725,13 +725,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>0.5706</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -778,13 +778,13 @@
       <selection activeCell="G8" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -800,7 +800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -808,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -824,7 +824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -841,21 +841,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -878,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -887,7 +887,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -896,7 +896,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -905,7 +905,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -914,7 +914,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -923,7 +923,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -932,7 +932,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -941,7 +941,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -950,7 +950,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -959,7 +959,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -968,7 +968,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -977,7 +977,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -986,7 +986,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -995,7 +995,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1004,7 +1004,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1013,7 +1013,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1022,7 +1022,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1031,7 +1031,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1040,7 +1040,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1062,9 +1062,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -1082,13 +1082,13 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="3">
         <f>(B1*Parameter!D8)/(B2*Parameter!D7)</f>
-        <v>166.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
   </sheetData>
